--- a/DataDriven/UserInfoData.xlsx
+++ b/DataDriven/UserInfoData.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15615" windowHeight="6060"/>
   </bookViews>
   <sheets>
     <sheet name="UserDataInfo" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>User email</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>12341234</t>
+  </si>
+  <si>
+    <t>d3@mail.com</t>
+  </si>
+  <si>
+    <t>d4@mail.com</t>
   </si>
 </sst>
 </file>
@@ -379,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,15 +407,42 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DataDriven/UserInfoData.xlsx
+++ b/DataDriven/UserInfoData.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15615" windowHeight="6060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16500" windowHeight="6060"/>
   </bookViews>
   <sheets>
-    <sheet name="UserDataInfo" sheetId="1" r:id="rId1"/>
+    <sheet name="UserDataInfoo" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -388,7 +389,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
